--- a/Excel/SBO_테이블_정리.xlsx
+++ b/Excel/SBO_테이블_정리.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SBO테이블정리" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,20 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="329">
-  <si>
-    <t>SBO TABLE 정리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="292">
   <si>
     <t>구매 오더</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>OPOR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>공급업체</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -79,10 +70,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>헤더 정보 테이블</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Series</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -139,14 +126,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>라인 정보 테이블</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>POR1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>품목 번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -239,14 +218,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>그 외 정보</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONIV</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CurSource</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -263,135 +234,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A/P 송장</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPCH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCH1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공급업체</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CntctCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공급업체 참조 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumAtCard</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호 - 시리즈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Series</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>전표 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>DocNum</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>전기일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DocDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>만기일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DocDueDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>증빙일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업장</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPLId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자 - 영업사원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SlpCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comments</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubCatNum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Dscription</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Dscription</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quantity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>품목 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP 카탈로그 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1063,10 +914,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>※ Line Data의 경우 기반으로 한 문서의 ObjType이 BaseType이 된다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1283,10 +1130,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>BOM Form</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Code</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1348,6 +1191,14 @@
   </si>
   <si>
     <t>Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM Form (OITT)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OINV</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1355,7 +1206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,24 +1248,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1461,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1529,49 +1363,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -2000,29 +1791,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2046,253 +1825,247 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2578,387 +2351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="L3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2990,1275 +2386,1259 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="K2" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="R2" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="92"/>
+      <c r="B2" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="K2" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="R2" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="92"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="9"/>
-      <c r="K5" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="L5" s="60"/>
-      <c r="R5" s="93" t="s">
+      <c r="B5" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="91"/>
+      <c r="R5" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="S5" s="56"/>
+    </row>
+    <row r="6" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="R6" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="S5" s="94"/>
-    </row>
-    <row r="6" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="R6" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="S6" s="55"/>
-      <c r="U6" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="V6" s="46" t="s">
-        <v>210</v>
+      <c r="S6" s="58"/>
+      <c r="U6" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="V6" s="42" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="B7" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="U7" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>287</v>
+      <c r="F7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="U7" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="71"/>
-      <c r="C8" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="8">
         <v>18</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="K8" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="L8" s="61"/>
-      <c r="N8" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="61"/>
-      <c r="R8" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="S8" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>289</v>
+      <c r="F8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="76"/>
+      <c r="H8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="K8" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="51"/>
+      <c r="N8" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="O8" s="51"/>
+      <c r="R8" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="S8" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="71"/>
-      <c r="C9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="C9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="8">
         <v>19</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="K9" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" s="56"/>
-      <c r="N9" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="O9" s="56"/>
-      <c r="R9" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>291</v>
+      <c r="F9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="K9" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="52"/>
+      <c r="N9" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="R9" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="71"/>
-      <c r="C10" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="C10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="8">
         <v>20</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="R10" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>293</v>
+      <c r="F10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="R10" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="71"/>
-      <c r="C11" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="C11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="8">
         <v>21</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="K11" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N11" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="O11" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>295</v>
+      <c r="F11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="76"/>
+      <c r="H11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="K11" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="82"/>
-      <c r="C12" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="B12" s="72"/>
+      <c r="C12" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="K12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>297</v>
+      <c r="D12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="17">
+        <v>69</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="K12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="K13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>299</v>
+      <c r="B13" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="K13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="71"/>
-      <c r="C14" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="C14" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="8">
         <v>59</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="K14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>301</v>
+      <c r="F14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="76"/>
+      <c r="H14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="K14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="71"/>
-      <c r="C15" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="C15" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="8">
         <v>60</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="76"/>
+      <c r="H15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="K15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="72"/>
+      <c r="C16" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="88">
+        <v>202</v>
+      </c>
+      <c r="F16" s="88"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="6"/>
+      <c r="K16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="75"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="6"/>
+      <c r="K17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="16">
+        <v>15</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="K18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="82"/>
+      <c r="C19" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="9">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="76"/>
+      <c r="H19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="82"/>
+      <c r="C20" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="9">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="76"/>
+      <c r="H20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="K20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="S20" s="50"/>
+      <c r="U20" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="V20" s="56"/>
+    </row>
+    <row r="21" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="83"/>
+      <c r="C21" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="23">
+        <v>16</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="77"/>
+      <c r="H21" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="K21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="7"/>
+      <c r="K22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="V22" s="58"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="82"/>
+      <c r="C23" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="9">
+        <v>67</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="K23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="S23" s="56"/>
+      <c r="U23" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="V23" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="15" t="s">
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="82"/>
+      <c r="C24" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="9">
+        <v>58</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="S24" s="58"/>
+      <c r="U24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="82"/>
+      <c r="C25" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="9">
+        <v>59</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="82"/>
+      <c r="C26" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="9">
+        <v>60</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="76"/>
+      <c r="H26" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R26" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="K15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
-      <c r="C16" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="66">
-        <v>202</v>
-      </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="10"/>
-      <c r="K16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="72"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="10"/>
-      <c r="K17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="U17" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="20">
-        <v>15</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="K18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="84"/>
-      <c r="C19" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="13">
-        <v>13</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="K19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="84"/>
-      <c r="C20" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="13">
-        <v>14</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="K20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R20" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="S20" s="59"/>
-      <c r="U20" s="93" t="s">
-        <v>213</v>
-      </c>
-      <c r="V20" s="94"/>
-    </row>
-    <row r="21" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="85"/>
-      <c r="C21" s="40" t="s">
+      <c r="S26" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="84"/>
+      <c r="C27" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="13">
+        <v>162</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="77"/>
+      <c r="H27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="27">
-        <v>16</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="K21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="4" t="s">
+      <c r="K27" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="S27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="11"/>
-      <c r="K22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U22" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="V22" s="55"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="84"/>
-      <c r="C23" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="U27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="16">
+        <v>30</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="13">
-        <v>67</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="K23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R23" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="S23" s="94"/>
-      <c r="U23" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="V23" s="46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="84"/>
-      <c r="C24" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="13">
-        <v>58</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R24" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="S24" s="55"/>
-      <c r="U24" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="V24" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="84"/>
-      <c r="C25" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="13">
-        <v>59</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="V25" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="84"/>
-      <c r="C26" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="13">
-        <v>60</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="R26" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="S26" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="U26" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="V26" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="86"/>
-      <c r="C27" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="17">
-        <v>162</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="K27" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="U27" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="20">
-        <v>30</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="H28" s="23" t="s">
+      <c r="K28" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="K28" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="L28" s="97"/>
-      <c r="R28" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="V28" s="12" t="s">
-        <v>234</v>
+      <c r="L28" s="54"/>
+      <c r="R28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="71"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="80">
+      <c r="C29" s="58"/>
+      <c r="D29" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="68">
         <v>28</v>
       </c>
-      <c r="F29" s="77" t="s">
+      <c r="F29" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="76"/>
+      <c r="H29" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="67"/>
+      <c r="K30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="U30" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="21">
         <v>182</v>
       </c>
-      <c r="G29" s="73"/>
-      <c r="H29" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="U29" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="V29" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="79"/>
-      <c r="K30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="U30" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="V30" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" s="25">
-        <v>182</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H31" s="30"/>
-      <c r="K31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R31" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="U31" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="V31" s="12" t="s">
-        <v>238</v>
+      <c r="F31" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="K31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="71"/>
-      <c r="C32" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="13">
+      <c r="C32" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="9">
         <v>46</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G32" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="R32" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="U32" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="V32" s="12" t="s">
-        <v>240</v>
+      <c r="F32" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="U32" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="71"/>
-      <c r="C33" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="13">
+      <c r="C33" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="9">
         <v>24</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="76"/>
-      <c r="H33" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="K33" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="L33" s="59"/>
-      <c r="N33" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="O33" s="61"/>
-      <c r="U33" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="V33" s="12" t="s">
-        <v>241</v>
+      <c r="F33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="79"/>
+      <c r="H33" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" s="50"/>
+      <c r="N33" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="O33" s="51"/>
+      <c r="U33" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="72"/>
-      <c r="C34" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="17">
+      <c r="B34" s="75"/>
+      <c r="C34" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="13">
         <v>25</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="G34" s="65"/>
-      <c r="H34" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="N34" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="O34" s="56"/>
-      <c r="U34" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V34" s="12" t="s">
-        <v>243</v>
+      <c r="F34" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="80"/>
+      <c r="H34" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="N34" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="O34" s="52"/>
+      <c r="U34" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="31">
+      <c r="B35" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="27">
         <v>-2</v>
       </c>
-      <c r="F35" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="H35" s="32"/>
-      <c r="U35" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="V35" s="12" t="s">
-        <v>245</v>
+      <c r="F35" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="U35" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K36" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="L36" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N36" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="O36" s="46" t="s">
-        <v>210</v>
+      <c r="K36" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="L36" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="N36" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="O36" s="42" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K37" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="U37" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="V37" s="55"/>
+      <c r="K37" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="U37" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="V37" s="58"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="U38" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="V38" s="46" t="s">
-        <v>210</v>
+        <v>220</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="U38" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="V38" s="42" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K39" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="U39" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="V39" s="12" t="s">
-        <v>266</v>
+      <c r="K39" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K40" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="U40" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>264</v>
+      <c r="K40" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="V40" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K41" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="U41" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="V41" s="12" t="s">
-        <v>268</v>
+      <c r="K41" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="R2:U3"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R20:S21"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C29:C30"/>
+  <mergeCells count="47">
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="G7:G12"/>
     <mergeCell ref="G13:G17"/>
@@ -4274,15 +3654,30 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="R2:U3"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="R24:S24"/>
     <mergeCell ref="R23:S23"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="U20:V20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/SBO_테이블_정리.xlsx
+++ b/Excel/SBO_테이블_정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="644">
   <si>
     <t>구매 오더</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -914,119 +914,1350 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>비고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>분개 비고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JrnlMemo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획 수량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlannedQty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWOR 테이블에 속함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Series</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 수량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmpltQty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산 입고/출고 Form</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서(배부 규칙)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산 오더 Form</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산 오더 유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산 오더 상태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획 수량 - 헤더</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlannedQty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호 - 시리즈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Series</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전표 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오더일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>만기일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DueDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserSign</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출처</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 오더</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>피킹 비고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PicRmrk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 번호 (상위 품목)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qauntity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM 유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlAvgSize</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획 평균 생산 규모</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고 (완제품 창고)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToWH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 리스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriceList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM Form (OITT)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OINV</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>※ Line Data의 경우 기반으로 한 문서의 ObjType이 BaseType이 된다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>※ 문서를 조회할 때 통화 기호가 있는 필드에 대해서는
+   시스템 정보에 테이블과 필드 이름이 표시 되지 않음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 질의에서 사용 방법
+   1. 항목 번호 사용
+   2. 데이터베이스 테이블 참조 사용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OITM 테이블</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부분 정보</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Series</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국어 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrgnName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 그룹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItmsGrpCod</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 그룹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UgpEntry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeBars</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvntItem</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 품목</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 품목</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellItem</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 품목</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrchseItem</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격리스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPLN,ListName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인 없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoDiscount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조업체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirmCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 식별자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출하 유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 관리 기준</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManBtchNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결된 리소스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkRsc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호 공급업체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조업체 카탈로그 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuppCatNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 단위</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyUnitMsr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 데이터 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 단위별 품목 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumInBuy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장 단위(구매)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurPackMsr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장별 수량(구매)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurPackUn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관세 그룹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CstGrpCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입 부가가치세 정의</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VatGroupPu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 계수 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 계수 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 계수 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 계수 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurFactor4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurFactor3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurFactor2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurFactor1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 데이터 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금 그룹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VatGroupSa</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 단위</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalUnitMsr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 단위별 품목 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumInSale</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장 단위</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalPackMsr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장별 수량(판매)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalPackUn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 계수1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 계수2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 계수3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 계수4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalFactor4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalFactor3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalFactor2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalFactor1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/L 계정 설정 기준</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLMethod</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 단위</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvntryUom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가 방법</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvalSystem</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 원가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvgPrice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고별 재고 관리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByWh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수(구매 단위)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReorderQty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 재고 레벨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinLevel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 재고 레벨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 데이터 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhsCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhsName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠김</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locked</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHand</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>약정 (정의)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCommited</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오더</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnOrder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 빈 강제 적용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DftBinEnfd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvgPrice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 원가 (평균 가격)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 데이터 목록 - 창고 (OITW)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 데이터 목록 - 창고 (OWHS)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획 방법</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlanningSys</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>조달 방법</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrcrmntMtd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오더 간격</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오더 배수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdrMulti</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdrIntrvl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 오더 수량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinOrdrQty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>리드 타임</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeadTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용 한도 일수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToleranDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상 품목</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phantom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고 방법</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IssueMthd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산 표준 원가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrdStdCst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InCostRoll</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산 표준 원가 롤업에 포함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM 유형 (OITT 테이블)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획 데이터 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산 데이터 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록정보 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItmsGrpNam</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 정보 목록 (OITG)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 비고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserText</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 경로</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trgtPath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일 목록 (ATC1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 비고 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부 일자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 괄호 안의 영어는 해당 목록의 필드가 포함되는 테이블 명을 뜻함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 마스터 데이터 Form - 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 마스터 데이터 Form - 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCRD 테이블</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비즈니스 파트너 유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국어 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardFName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP 통화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연방세 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LicTradNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오더 (미결 오더 잔액)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderBalFC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기회 (미결 기회)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OprCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cellular</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fax</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자메일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 사이트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출하 유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩터링 지시자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Mail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntrntSite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indicator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩터링 지시자 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OIDC, Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectCod</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비즈니스 파트너 유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmpPrivate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>별칭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AliadName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자등록번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VATRegNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자 성명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CntctPrsn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 번호 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 연방세 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VatIdUnCmp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>비고</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Comments</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>분개 비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JrnlMemo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>계획 수량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlannedQty</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OWOR 테이블에 속함</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Series</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료 수량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmpltQty</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산 입고/출고 Form</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서(배부 규칙)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산 오더 Form</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산 오더 유형</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산 오더 상태</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 내역</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProdName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>계획 수량 - 헤더</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlannedQty</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위 이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uom</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>창고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warehouse</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위</t>
+    <t>Notes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP 채널 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelBP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LangCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>업태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlblLocNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅 발신 보류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockComm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 조건 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 조건</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연체 이자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntrstRate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 리스트 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>여신 한도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditLine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebtLine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>약정(채무) 한도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>독촉 조건</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DunTerm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 전기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoPost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효 할인 그룹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiscRel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효 가격</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffecPrice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용카드 유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditCard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용카드 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrCardNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>만료일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardValid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerIdNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 지연</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvrageLate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 순위</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1034,171 +2265,351 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>번호 - 시리즈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Series</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>전표 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DocNum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>오더일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>만기일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DueDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserSign</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>출처</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매 오더</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginNum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comments</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>피킹 비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PicRmrk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 번호 (상위 품목)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위 수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qauntity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 내역</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOM 유형</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TreeType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlAvgSize</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>계획 평균 생산 규모</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>창고 (완제품 창고)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToWH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격 리스트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PriceList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOM Form (OITT)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OINV</t>
+    <t>기본 IBAN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBAN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HidCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 오더 분할 납품</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartDelivr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>행별 분할 반품 허용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackOrder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인 그룹 적용 안 함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoDiscount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 BP의 배서 가능 수표</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdrsFromBP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 BP는 배서된 수표 접수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdrsToBP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP 마스터 데이터 Form - 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP 마스터 데이터 Form - 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 조건 목록 - BP 은행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 국가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIC/SWIFT 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankCountr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DflAccount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DflSwift</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 지점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DflBranch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankCtlKey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리 내부 내부 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBAN (기본 은행)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DflIBAN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위임 권한 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MandateID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서명일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 실행 목록 - 주거래 은행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBAN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIC/SWIFT 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseBnk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HousBnkCry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HousBnkAct</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HousBnkBrn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HsBnkIBAN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HsBnkSwift</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HousCtlKey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조 세부사항</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefDetails</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 보류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymBlock</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 보류 내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PyBlckDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 지급</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinglePaym</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>추심 권한</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollecAuth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 수수료 할당 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCACode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 실행 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계 목록 - 일반</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 비즈니스 파트너</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FatherCard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FatherType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위 요약 유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획 그룹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PingGroup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계 회사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affiliate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계 목록 - 세금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VatStatus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금 상태 (정의)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금 그룹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECVatGroup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금 그룹 (이름)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVTG, Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-Tax 웹 사이트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTSWebSite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금 반올림 규칙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaxRndRule</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유 입력 텍스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free_Text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 필드명에 테이블명, 필드명으로 되어 있는 것 유의!</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1791,7 +3202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1822,9 +3233,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1942,9 +3350,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1955,39 +3402,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2065,7 +3479,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2351,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V41"/>
+  <dimension ref="B2:AX43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2381,142 +3813,321 @@
     <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.25" customWidth="1"/>
-    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.125" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="17.75" customWidth="1"/>
+    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" customWidth="1"/>
+    <col min="28" max="28" width="20.875" customWidth="1"/>
+    <col min="29" max="29" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="4" customWidth="1"/>
+    <col min="32" max="32" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5" customWidth="1"/>
+    <col min="35" max="35" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="4" customWidth="1"/>
+    <col min="39" max="39" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4" customWidth="1"/>
+    <col min="42" max="42" width="22.75" customWidth="1"/>
+    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="4" customWidth="1"/>
+    <col min="46" max="46" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4" customWidth="1"/>
+    <col min="49" max="49" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="K2" s="59" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="K2" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="R2" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="48"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="R2" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="47"/>
+      <c r="Y2" s="53" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AF2" s="53" t="s">
+        <v>453</v>
+      </c>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AM2" s="53" t="s">
+        <v>571</v>
+      </c>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AT2" s="53" t="s">
+        <v>572</v>
+      </c>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="48"/>
+    <row r="3" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="47"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
     </row>
-    <row r="4" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
+    <row r="4" spans="2:50" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="5"/>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="R5" s="55" t="s">
+      <c r="L5" s="61"/>
+      <c r="R5" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="S5" s="56"/>
+      <c r="S5" s="55"/>
+      <c r="Y5" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z5" s="55"/>
+      <c r="AB5" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC5" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF5" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG5" s="58"/>
+      <c r="AI5" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="AJ5" s="58"/>
+      <c r="AM5" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN5" s="55"/>
+      <c r="AP5" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="AQ5" s="58"/>
+      <c r="AT5" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="AU5" s="58"/>
+      <c r="AW5" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="AX5" s="58"/>
     </row>
-    <row r="6" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="43" t="s">
+    <row r="6" spans="2:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>62</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="R6" s="57" t="s">
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="R6" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="S6" s="58"/>
-      <c r="U6" s="42" t="s">
+      <c r="S6" s="57"/>
+      <c r="U6" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="V6" s="42" t="s">
+      <c r="V6" s="41" t="s">
         <v>173</v>
       </c>
+      <c r="Y6" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z6" s="57"/>
+      <c r="AB6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF6" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG6" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI6" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ6" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM6" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="AN6" s="57"/>
+      <c r="AP6" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ6" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT6" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU6" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW6" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX6" s="51" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="7" spans="2:22" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="70" t="s">
+    <row r="7" spans="2:50" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>22</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="V7" s="8" t="s">
-        <v>249</v>
+      <c r="AF7" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
-      <c r="C8" s="31" t="s">
+    <row r="8" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B8" s="72"/>
+      <c r="C8" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2528,35 +4139,81 @@
       <c r="F8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="77"/>
+      <c r="H8" s="10" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="51"/>
-      <c r="N8" s="51" t="s">
+      <c r="L8" s="63"/>
+      <c r="N8" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="O8" s="51"/>
-      <c r="R8" s="42" t="s">
+      <c r="O8" s="63"/>
+      <c r="R8" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="S8" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="U8" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="V8" s="8" t="s">
-        <v>251</v>
+      <c r="Y8" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z8" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB8" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC8" s="60"/>
+      <c r="AF8" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM8" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN8" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>600</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
-      <c r="C9" s="31" t="s">
+    <row r="9" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B9" s="72"/>
+      <c r="C9" s="30" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2568,35 +4225,83 @@
       <c r="F9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="77"/>
+      <c r="H9" s="10" t="s">
         <v>81</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="L9" s="52"/>
-      <c r="N9" s="52" t="s">
+      <c r="L9" s="64"/>
+      <c r="N9" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="R9" s="8" t="s">
+      <c r="O9" s="64"/>
+      <c r="R9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="V9" s="8" t="s">
-        <v>253</v>
+      <c r="Y9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB9" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC9" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>602</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="31" t="s">
+    <row r="10" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B10" s="72"/>
+      <c r="C10" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2608,27 +4313,75 @@
       <c r="F10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="10" t="s">
         <v>82</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="S10" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="U10" s="8" t="s">
+      <c r="U10" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="V10" s="8" t="s">
-        <v>255</v>
+      <c r="Y10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AX10" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
-      <c r="C11" s="31" t="s">
+    <row r="11" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B11" s="72"/>
+      <c r="C11" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2640,52 +4393,100 @@
       <c r="F11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="77"/>
+      <c r="H11" s="10" t="s">
         <v>83</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="S11" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="U11" s="8" t="s">
+      <c r="U11" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="V11" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="V11" s="8" t="s">
-        <v>257</v>
+      <c r="Y11" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="72"/>
-      <c r="C12" s="32" t="s">
+    <row r="12" spans="2:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="73"/>
+      <c r="C12" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>69</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="78"/>
+      <c r="H12" s="17" t="s">
         <v>84</v>
       </c>
       <c r="I12" s="5"/>
@@ -2698,38 +4499,86 @@
       <c r="N12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="S12" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="U12" s="8" t="s">
+      <c r="U12" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="V12" s="8" t="s">
-        <v>259</v>
+      <c r="Y12" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX12" s="2" t="s">
+        <v>605</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="74" t="s">
+    <row r="13" spans="2:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="21" t="s">
         <v>138</v>
       </c>
       <c r="I13" s="6"/>
@@ -2742,25 +4591,73 @@
       <c r="N13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="S13" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="U13" s="8" t="s">
+      <c r="U13" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V13" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="V13" s="8" t="s">
-        <v>261</v>
+      <c r="Y13" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AT13" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="AW13" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="AX13" s="2" t="s">
+        <v>606</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
-      <c r="C14" s="34" t="s">
+    <row r="14" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B14" s="72"/>
+      <c r="C14" s="33" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -2772,8 +4669,8 @@
       <c r="F14" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="11" t="s">
+      <c r="G14" s="77"/>
+      <c r="H14" s="10" t="s">
         <v>123</v>
       </c>
       <c r="I14" s="6"/>
@@ -2786,25 +4683,55 @@
       <c r="N14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="S14" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="U14" s="8" t="s">
+      <c r="U14" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="V14" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="V14" s="8" t="s">
-        <v>263</v>
+      <c r="Y14" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="AT14" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>589</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="71"/>
-      <c r="C15" s="34" t="s">
+    <row r="15" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B15" s="72"/>
+      <c r="C15" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -2816,8 +4743,8 @@
       <c r="F15" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="11" t="s">
+      <c r="G15" s="77"/>
+      <c r="H15" s="10" t="s">
         <v>137</v>
       </c>
       <c r="I15" s="6"/>
@@ -2830,36 +4757,78 @@
       <c r="N15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="S15" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="U15" s="8" t="s">
+      <c r="U15" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="V15" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="V15" s="8" t="s">
-        <v>265</v>
-      </c>
+      <c r="Y15" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF15" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG15" s="60"/>
+      <c r="AI15" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="AJ15" s="58"/>
+      <c r="AM15" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="AT15" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AW15" s="58" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX15" s="58"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
-      <c r="C16" s="85" t="s">
+    <row r="16" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B16" s="73"/>
+      <c r="C16" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="89">
         <v>202</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="6"/>
       <c r="K16" s="4" t="s">
         <v>9</v>
@@ -2870,30 +4839,66 @@
       <c r="N16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="S16" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="U16" s="8" t="s">
+      <c r="U16" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="V16" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="V16" s="8" t="s">
-        <v>267</v>
+      <c r="Y16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF16" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG16" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI16" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ16" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AW16" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX16" s="51" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="75"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="90"/>
+    <row r="17" spans="2:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="76"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="6"/>
       <c r="K17" s="4" t="s">
         <v>13</v>
@@ -2904,42 +4909,86 @@
       <c r="N17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="U17" s="8" t="s">
+      <c r="U17" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="V17" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="V17" s="8" t="s">
-        <v>269</v>
+      <c r="Y17" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB17" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC17" s="60"/>
+      <c r="AF17" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP17" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AT17" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="AU17" s="58"/>
+      <c r="AW17" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="70" t="s">
+    <row r="18" spans="2:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>15</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="78" t="s">
+      <c r="G18" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>97</v>
       </c>
       <c r="I18" s="7"/>
@@ -2952,13 +5001,49 @@
       <c r="N18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="Y18" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB18" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC18" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AT18" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU18" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>610</v>
+      </c>
     </row>
-    <row r="19" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
-      <c r="C19" s="34" t="s">
+    <row r="19" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="83"/>
+      <c r="C19" s="33" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -2970,8 +5055,8 @@
       <c r="F19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="77"/>
+      <c r="H19" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I19" s="7"/>
@@ -2984,13 +5069,51 @@
       <c r="N19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="Y19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF19" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG19" s="58"/>
+      <c r="AI19" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ19" s="58"/>
+      <c r="AP19" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="AT19" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>612</v>
+      </c>
     </row>
-    <row r="20" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
-      <c r="C20" s="34" t="s">
+    <row r="20" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="83"/>
+      <c r="C20" s="33" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -3002,8 +5125,8 @@
       <c r="F20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="77"/>
+      <c r="H20" s="11" t="s">
         <v>99</v>
       </c>
       <c r="I20" s="7"/>
@@ -3016,34 +5139,74 @@
       <c r="N20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R20" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="S20" s="50"/>
-      <c r="U20" s="55" t="s">
+      <c r="R20" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="S20" s="53"/>
+      <c r="U20" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="V20" s="56"/>
+      <c r="V20" s="55"/>
+      <c r="AB20" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF20" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG20" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI20" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ20" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM20" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="AN20" s="58"/>
+      <c r="AP20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="AT20" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>614</v>
+      </c>
     </row>
-    <row r="21" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="83"/>
-      <c r="C21" s="36" t="s">
+    <row r="21" spans="2:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="84"/>
+      <c r="C21" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>16</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="24" t="s">
+      <c r="G21" s="78"/>
+      <c r="H21" s="23" t="s">
         <v>100</v>
       </c>
       <c r="I21" s="7"/>
@@ -3056,30 +5219,76 @@
       <c r="N21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="Y21" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z21" s="60"/>
+      <c r="AB21" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM21" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN21" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="AT21" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="AU21" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AX21" s="2" t="s">
+        <v>616</v>
+      </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="74" t="s">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B22" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="7"/>
       <c r="K22" s="4" t="s">
         <v>21</v>
@@ -3087,14 +5296,56 @@
       <c r="L22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="57" t="s">
+      <c r="U22" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="V22" s="58"/>
+      <c r="V22" s="57"/>
+      <c r="Y22" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z22" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="AT22" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>618</v>
+      </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B23" s="83"/>
+      <c r="C23" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -3106,10 +5357,10 @@
       <c r="F23" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>121</v>
       </c>
       <c r="I23" s="7"/>
@@ -3119,20 +5370,50 @@
       <c r="L23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R23" s="55" t="s">
+      <c r="R23" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="S23" s="56"/>
-      <c r="U23" s="42" t="s">
+      <c r="S23" s="55"/>
+      <c r="U23" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="V23" s="42" t="s">
+      <c r="V23" s="41" t="s">
         <v>173</v>
       </c>
+      <c r="Y23" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>507</v>
+      </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="82"/>
-      <c r="C24" s="34" t="s">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B24" s="83"/>
+      <c r="C24" s="33" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -3144,10 +5425,10 @@
       <c r="F24" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>122</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -3156,20 +5437,58 @@
       <c r="L24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R24" s="57" t="s">
+      <c r="R24" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="S24" s="58"/>
-      <c r="U24" s="8" t="s">
+      <c r="S24" s="57"/>
+      <c r="U24" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="V24" s="8" t="s">
+      <c r="V24" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="Y24" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT24" s="58" t="s">
+        <v>629</v>
+      </c>
+      <c r="AU24" s="58"/>
+      <c r="AW24" s="58" t="s">
+        <v>640</v>
+      </c>
+      <c r="AX24" s="58"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="82"/>
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B25" s="83"/>
+      <c r="C25" s="33" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -3181,10 +5500,10 @@
       <c r="F25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="76" t="s">
+      <c r="G25" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>123</v>
       </c>
       <c r="K25" s="4" t="s">
@@ -3193,16 +5512,58 @@
       <c r="L25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U25" s="8" t="s">
+      <c r="U25" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="V25" s="8" t="s">
+      <c r="V25" s="4" t="s">
         <v>190</v>
       </c>
+      <c r="Y25" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB25" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC25" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AT25" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU25" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW25" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX25" s="51" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="82"/>
-      <c r="C26" s="34" t="s">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B26" s="83"/>
+      <c r="C26" s="33" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -3214,197 +5575,399 @@
       <c r="F26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="12" t="s">
+      <c r="G26" s="77"/>
+      <c r="H26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R26" s="42" t="s">
+      <c r="R26" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="S26" s="42" t="s">
+      <c r="S26" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="U26" s="8" t="s">
+      <c r="U26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V26" s="8" t="s">
+      <c r="V26" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="Y26" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB26" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC26" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>642</v>
+      </c>
     </row>
-    <row r="27" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="84"/>
-      <c r="C27" s="38" t="s">
+    <row r="27" spans="2:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="85"/>
+      <c r="C27" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>162</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="77"/>
-      <c r="H27" s="18" t="s">
+      <c r="G27" s="78"/>
+      <c r="H27" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="42" t="s">
+      <c r="K27" s="41" t="s">
         <v>180</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="R27" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="R27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U27" s="8" t="s">
+      <c r="U27" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="V27" s="8" t="s">
+      <c r="V27" s="4" t="s">
         <v>196</v>
       </c>
+      <c r="Y27" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB27" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC27" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF27" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG27" s="58"/>
+      <c r="AM27" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AT27" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AU27" s="2" t="s">
+        <v>633</v>
+      </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="70" t="s">
+    <row r="28" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B28" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>30</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="G28" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="53" t="s">
+      <c r="K28" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="L28" s="54"/>
-      <c r="R28" s="8" t="s">
+      <c r="L28" s="66"/>
+      <c r="R28" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="S28" s="8" t="s">
+      <c r="S28" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U28" s="8" t="s">
+      <c r="U28" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="V28" s="8" t="s">
+      <c r="V28" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="Y28" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB28" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC28" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF28" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG28" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AU28" s="2" t="s">
+        <v>635</v>
+      </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="71"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="68" t="s">
+    <row r="29" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B29" s="72"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="69">
         <v>28</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="F29" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="76"/>
-      <c r="H29" s="66" t="s">
+      <c r="G29" s="77"/>
+      <c r="H29" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="U29" s="8" t="s">
+      <c r="U29" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="V29" s="8" t="s">
+      <c r="V29" s="4" t="s">
         <v>198</v>
       </c>
+      <c r="Y29" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB29" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC29" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="AT29" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="AU29" s="2" t="s">
+        <v>637</v>
+      </c>
     </row>
-    <row r="30" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="67"/>
+    <row r="30" spans="2:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="68"/>
       <c r="K30" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R30" s="8" t="s">
+      <c r="R30" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S30" s="8" t="s">
+      <c r="S30" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U30" s="8" t="s">
+      <c r="U30" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="V30" s="8" t="s">
+      <c r="V30" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="Y30" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB30" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC30" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AT30" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="AU30" s="2" t="s">
+        <v>639</v>
+      </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="74" t="s">
+    <row r="31" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B31" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>182</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="H31" s="26"/>
+      <c r="H31" s="25"/>
       <c r="K31" s="2" t="s">
         <v>51</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R31" s="10" t="s">
+      <c r="R31" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="S31" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="S31" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="U31" s="8" t="s">
+      <c r="U31" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="V31" s="8" t="s">
+      <c r="V31" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="Y31" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="AQ31" s="2" t="s">
+        <v>523</v>
+      </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="71"/>
-      <c r="C32" s="34" t="s">
+    <row r="32" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B32" s="72"/>
+      <c r="C32" s="33" t="s">
         <v>148</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -3416,28 +5979,34 @@
       <c r="F32" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G32" s="69" t="s">
+      <c r="G32" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="R32" s="10" t="s">
+      <c r="R32" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="S32" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="S32" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="U32" s="8" t="s">
+      <c r="U32" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="V32" s="8" t="s">
+      <c r="V32" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="AM32" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>546</v>
+      </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B33" s="71"/>
-      <c r="C33" s="34" t="s">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B33" s="72"/>
+      <c r="C33" s="33" t="s">
         <v>149</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -3449,188 +6018,370 @@
       <c r="F33" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="79"/>
-      <c r="H33" s="12" t="s">
+      <c r="G33" s="80"/>
+      <c r="H33" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="K33" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="L33" s="50"/>
-      <c r="N33" s="51" t="s">
+      <c r="K33" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" s="53"/>
+      <c r="N33" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="O33" s="51"/>
-      <c r="U33" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="V33" s="8" t="s">
+      <c r="O33" s="63"/>
+      <c r="U33" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="V33" s="4" t="s">
         <v>204</v>
       </c>
+      <c r="Y33" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z33" s="60"/>
+      <c r="AM33" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="AP33" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="AQ33" s="58"/>
     </row>
-    <row r="34" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="75"/>
-      <c r="C34" s="38" t="s">
+    <row r="34" spans="2:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="76"/>
+      <c r="C34" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>25</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="80"/>
-      <c r="H34" s="29" t="s">
+      <c r="G34" s="81"/>
+      <c r="H34" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="N34" s="52" t="s">
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="N34" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="O34" s="52"/>
-      <c r="U34" s="8" t="s">
+      <c r="O34" s="64"/>
+      <c r="U34" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="V34" s="8" t="s">
+      <c r="V34" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="Y34" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z34" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="AP34" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ34" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>643</v>
+      </c>
     </row>
-    <row r="35" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="45" t="s">
+    <row r="35" spans="2:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="26">
         <v>-2</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="H35" s="28"/>
-      <c r="U35" s="8" t="s">
+      <c r="H35" s="27"/>
+      <c r="U35" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="V35" s="8" t="s">
+      <c r="V35" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="Y35" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="AN35" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AP35" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AQ35" s="2" t="s">
+        <v>562</v>
+      </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K36" s="42" t="s">
+    <row r="36" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="K36" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="L36" s="42" t="s">
+      <c r="L36" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="N36" s="42" t="s">
+      <c r="N36" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="O36" s="42" t="s">
+      <c r="O36" s="41" t="s">
         <v>173</v>
       </c>
+      <c r="Y36" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="AQ36" s="2" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K37" s="8" t="s">
+    <row r="37" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="K37" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="U37" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="V37" s="57"/>
+      <c r="Y37" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AN37" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="AQ37" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="O37" s="8" t="s">
+      <c r="L38" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="U37" s="57" t="s">
+      <c r="O38" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="U38" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="V38" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM38" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AN38" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AP38" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="AQ38" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="K39" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="V39" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="V37" s="58"/>
+      <c r="Y39" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="AN39" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AP39" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="AQ39" s="2" t="s">
+        <v>570</v>
+      </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="U38" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="V38" s="42" t="s">
-        <v>173</v>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="K40" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K39" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="U39" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="V39" s="8" t="s">
+    <row r="41" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="K41" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="U41" s="4" t="s">
         <v>228</v>
       </c>
+      <c r="V41" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K40" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="U40" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="V40" s="8" t="s">
-        <v>226</v>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="Y42" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K41" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="V41" s="8" t="s">
-        <v>230</v>
-      </c>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="77">
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AP33:AQ33"/>
+    <mergeCell ref="AT2:AX3"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AW15:AX15"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AW24:AX24"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="K2:O3"/>
@@ -3639,6 +6390,12 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="G7:G12"/>
     <mergeCell ref="G13:G17"/>
@@ -3655,29 +6412,44 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="U37:V37"/>
     <mergeCell ref="R2:U3"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="R20:S21"/>
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="B39:F40"/>
+    <mergeCell ref="B41:D43"/>
     <mergeCell ref="K33:L34"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="AM2:AQ3"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="Y2:AC3"/>
+    <mergeCell ref="Y21:Z21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
